--- a/Hardware/LED White Balance/WB-QBLP650.xlsx
+++ b/Hardware/LED White Balance/WB-QBLP650.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224"/>
   </bookViews>
   <sheets>
     <sheet name="White balance" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>Vin (V)</t>
   </si>
@@ -1409,11 +1409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399207512"/>
-        <c:axId val="399209472"/>
+        <c:axId val="271579064"/>
+        <c:axId val="271585608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399207512"/>
+        <c:axId val="271579064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1523,14 +1523,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399209472"/>
+        <c:crossAx val="271585608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399209472"/>
+        <c:axId val="271585608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1645,7 +1645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399207512"/>
+        <c:crossAx val="271579064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2651,11 +2651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319037504"/>
-        <c:axId val="319037896"/>
+        <c:axId val="269991920"/>
+        <c:axId val="269992312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319037504"/>
+        <c:axId val="269991920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -2765,12 +2765,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319037896"/>
+        <c:crossAx val="269992312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319037896"/>
+        <c:axId val="269992312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -2884,7 +2884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319037504"/>
+        <c:crossAx val="269991920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4360,10 +4360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4488,7 +4488,7 @@
         <v>2.2871097169670209</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
@@ -4497,11 +4497,11 @@
         <v>2.616006600119718</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>11.501297467888207</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>26.821083450899948</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -4528,11 +4528,11 @@
         <v>157.45471711281593</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>32</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>1312.6842188728251</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
@@ -4549,11 +4549,8 @@
         <f>(B2-B16)*1000/B12</f>
         <v>4730.4166264425121</v>
       </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
@@ -4562,35 +4559,35 @@
         <v>4615.5983683936947</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="18">
-        <f>IF(B4='Resistencias comerciales'!A2,VLOOKUP('White balance'!B23,'Resistencias comerciales'!A3:A579,1,TRUE),IF(B4='Resistencias comerciales'!B2,VLOOKUP('White balance'!B23,'Resistencias comerciales'!B3:B579,1,TRUE),IF(B4='Resistencias comerciales'!C2,VLOOKUP('White balance'!B23,'Resistencias comerciales'!C3:C579,1,TRUE))))</f>
+        <f t="array" ref="B27">IF(B4='Resistencias comerciales'!A2,INDEX('Resistencias comerciales'!A3:A585,MATCH(MIN(ABS('Resistencias comerciales'!A3:A585-B23)),'Resistencias comerciales'!A3:A585-B23)),IF(B4='Resistencias comerciales'!B2,INDEX('Resistencias comerciales'!B3:B585,MATCH(MIN(ABS('Resistencias comerciales'!B3:B585-B23)),'Resistencias comerciales'!B3:B585-B23)),IF(B4='Resistencias comerciales'!C2,INDEX('Resistencias comerciales'!C3:C585,MATCH(MIN(ABS('Resistencias comerciales'!C3:C585-B23)),'Resistencias comerciales'!C3:C585-B23)))))</f>
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="18">
-        <f>IF(B4='Resistencias comerciales'!A2,VLOOKUP('White balance'!B24,'Resistencias comerciales'!A3:A579,1,TRUE),IF(B4='Resistencias comerciales'!B2,VLOOKUP('White balance'!B24,'Resistencias comerciales'!B3:B579,1,TRUE),IF(B4='Resistencias comerciales'!C2,VLOOKUP('White balance'!B24,'Resistencias comerciales'!C3:C579,1,TRUE))))</f>
-        <v>4640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="array" ref="B28">IF(B4='Resistencias comerciales'!A2,INDEX('Resistencias comerciales'!A3:A585,MATCH(MIN(ABS('Resistencias comerciales'!A3:A585-B24)),'Resistencias comerciales'!A3:A585-B24)),IF(B4='Resistencias comerciales'!B2,INDEX('Resistencias comerciales'!B3:B585,MATCH(MIN(ABS('Resistencias comerciales'!B3:B585-B24)),'Resistencias comerciales'!B3:B585-B24)),IF(B4='Resistencias comerciales'!C2,INDEX('Resistencias comerciales'!C3:C585,MATCH(MIN(ABS('Resistencias comerciales'!C3:C585-B24)),'Resistencias comerciales'!C3:C585-B24)))))</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="18">
-        <f>IF(B4='Resistencias comerciales'!A2,VLOOKUP('White balance'!B25,'Resistencias comerciales'!A3:A579,1,TRUE),IF(B4='Resistencias comerciales'!B2,VLOOKUP('White balance'!B25,'Resistencias comerciales'!B3:B579,1,TRUE),IF(B4='Resistencias comerciales'!C2,VLOOKUP('White balance'!B25,'Resistencias comerciales'!C3:C579,1,TRUE))))</f>
-        <v>4530.0000000000009</v>
+        <f t="array" ref="B29">IF(B4='Resistencias comerciales'!A2,INDEX('Resistencias comerciales'!A3:A585,MATCH(MIN(ABS('Resistencias comerciales'!A3:A585-B25)),'Resistencias comerciales'!A3:A585-B25)),IF(B4='Resistencias comerciales'!B2,INDEX('Resistencias comerciales'!B3:B585,MATCH(MIN(ABS('Resistencias comerciales'!B3:B585-B25)),'Resistencias comerciales'!B3:B585-B25)),IF(B4='Resistencias comerciales'!C2,INDEX('Resistencias comerciales'!C3:C585,MATCH(MIN(ABS('Resistencias comerciales'!C3:C585-B25)),'Resistencias comerciales'!C3:C585-B25)))))</f>
+        <v>4640</v>
       </c>
     </row>
   </sheetData>
@@ -4598,7 +4595,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Resistencias comerciales'!$A$2:$C$2</xm:f>
@@ -4615,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6170,10 +6167,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F579"/>
+  <dimension ref="A1:F585"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="C357" sqref="C357:C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6346,7 +6343,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
-        <f t="shared" ref="A16:A79" si="0">A4*10</f>
+        <f t="shared" ref="A16:A75" si="0">A4*10</f>
         <v>12</v>
       </c>
       <c r="B16" s="19">
@@ -7019,7 +7016,7 @@
         <v>510</v>
       </c>
       <c r="C68" s="19">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -7032,7 +7029,7 @@
         <v>560</v>
       </c>
       <c r="C69" s="19">
-        <v>4.87</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -7045,7 +7042,7 @@
         <v>620</v>
       </c>
       <c r="C70" s="19">
-        <v>4.99</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -7058,7 +7055,7 @@
         <v>680</v>
       </c>
       <c r="C71" s="19">
-        <v>5.1100000000000003</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -7071,7 +7068,7 @@
         <v>750</v>
       </c>
       <c r="C72" s="19">
-        <v>5.23</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -7084,7 +7081,7 @@
         <v>820</v>
       </c>
       <c r="C73" s="19">
-        <v>5.36</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -7097,7 +7094,7 @@
         <v>910</v>
       </c>
       <c r="C74" s="19">
-        <v>5.49</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -7110,7 +7107,7 @@
         <v>1000</v>
       </c>
       <c r="C75" s="19">
-        <v>5.62</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -7120,7 +7117,7 @@
         <v>1100</v>
       </c>
       <c r="C76" s="19">
-        <v>5.76</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -7130,7 +7127,7 @@
         <v>1200</v>
       </c>
       <c r="C77" s="19">
-        <v>5.9</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -7140,7 +7137,7 @@
         <v>1300</v>
       </c>
       <c r="C78" s="19">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -7150,7 +7147,7 @@
         <v>1500</v>
       </c>
       <c r="C79" s="19">
-        <v>6.19</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -7160,7 +7157,7 @@
         <v>1600</v>
       </c>
       <c r="C80" s="19">
-        <v>6.34</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -7170,7 +7167,7 @@
         <v>1800</v>
       </c>
       <c r="C81" s="19">
-        <v>6.49</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7180,7 +7177,7 @@
         <v>2000</v>
       </c>
       <c r="C82" s="19">
-        <v>6.65</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7190,7 +7187,7 @@
         <v>2200</v>
       </c>
       <c r="C83" s="19">
-        <v>6.81</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -7200,7 +7197,7 @@
         <v>2400</v>
       </c>
       <c r="C84" s="19">
-        <v>6.98</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7210,7 +7207,7 @@
         <v>2700</v>
       </c>
       <c r="C85" s="19">
-        <v>7.15</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7220,7 +7217,7 @@
         <v>3000</v>
       </c>
       <c r="C86" s="19">
-        <v>7.32</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7230,7 +7227,7 @@
         <v>3300</v>
       </c>
       <c r="C87" s="19">
-        <v>7.5</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -7240,7 +7237,7 @@
         <v>3600</v>
       </c>
       <c r="C88" s="19">
-        <v>7.68</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7250,7 +7247,7 @@
         <v>3900</v>
       </c>
       <c r="C89" s="19">
-        <v>7.87</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -7260,7 +7257,7 @@
         <v>4300</v>
       </c>
       <c r="C90" s="19">
-        <v>8.06</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7270,7 +7267,7 @@
         <v>4700</v>
       </c>
       <c r="C91" s="19">
-        <v>8.25</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -7280,7 +7277,7 @@
         <v>5100</v>
       </c>
       <c r="C92" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7290,7 +7287,7 @@
         <v>5600</v>
       </c>
       <c r="C93" s="19">
-        <v>8.66</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -7300,7 +7297,7 @@
         <v>6200</v>
       </c>
       <c r="C94" s="19">
-        <v>8.8699999999999992</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -7310,7 +7307,7 @@
         <v>6800</v>
       </c>
       <c r="C95" s="19">
-        <v>9.09</v>
+        <v>8.8699999999999992</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -7320,7 +7317,7 @@
         <v>7500</v>
       </c>
       <c r="C96" s="19">
-        <v>9.31</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -7330,7 +7327,7 @@
         <v>8200</v>
       </c>
       <c r="C97" s="19">
-        <v>9.5299999999999994</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -7340,7 +7337,7 @@
         <v>9100</v>
       </c>
       <c r="C98" s="19">
-        <v>9.76</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -7350,8 +7347,7 @@
         <v>10000</v>
       </c>
       <c r="C99" s="19">
-        <f>C3*10</f>
-        <v>10</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -7361,8 +7357,8 @@
         <v>11000</v>
       </c>
       <c r="C100" s="19">
-        <f t="shared" ref="C100:C163" si="3">C4*10</f>
-        <v>10.199999999999999</v>
+        <f>C3*10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -7372,8 +7368,8 @@
         <v>12000</v>
       </c>
       <c r="C101" s="19">
-        <f t="shared" si="3"/>
-        <v>10.5</v>
+        <f t="shared" ref="C101:C164" si="3">C4*10</f>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -7384,7 +7380,7 @@
       </c>
       <c r="C102" s="19">
         <f t="shared" si="3"/>
-        <v>10.700000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -7395,7 +7391,7 @@
       </c>
       <c r="C103" s="19">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10.700000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -7406,7 +7402,7 @@
       </c>
       <c r="C104" s="19">
         <f t="shared" si="3"/>
-        <v>11.299999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -7417,7 +7413,7 @@
       </c>
       <c r="C105" s="19">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>11.299999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -7428,7 +7424,7 @@
       </c>
       <c r="C106" s="19">
         <f t="shared" si="3"/>
-        <v>11.799999999999999</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -7439,7 +7435,7 @@
       </c>
       <c r="C107" s="19">
         <f t="shared" si="3"/>
-        <v>12.1</v>
+        <v>11.799999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -7450,7 +7446,7 @@
       </c>
       <c r="C108" s="19">
         <f t="shared" si="3"/>
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -7461,7 +7457,7 @@
       </c>
       <c r="C109" s="19">
         <f t="shared" si="3"/>
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -7472,7 +7468,7 @@
       </c>
       <c r="C110" s="19">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -7483,7 +7479,7 @@
       </c>
       <c r="C111" s="19">
         <f t="shared" si="3"/>
-        <v>13.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -7494,7 +7490,7 @@
       </c>
       <c r="C112" s="19">
         <f t="shared" si="3"/>
-        <v>13.700000000000001</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -7505,7 +7501,7 @@
       </c>
       <c r="C113" s="19">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13.700000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -7516,7 +7512,7 @@
       </c>
       <c r="C114" s="19">
         <f t="shared" si="3"/>
-        <v>14.299999999999999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -7527,7 +7523,7 @@
       </c>
       <c r="C115" s="19">
         <f t="shared" si="3"/>
-        <v>14.7</v>
+        <v>14.299999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -7538,7 +7534,7 @@
       </c>
       <c r="C116" s="19">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -7549,7 +7545,7 @@
       </c>
       <c r="C117" s="19">
         <f t="shared" si="3"/>
-        <v>15.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -7560,7 +7556,7 @@
       </c>
       <c r="C118" s="19">
         <f t="shared" si="3"/>
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -7571,7 +7567,7 @@
       </c>
       <c r="C119" s="19">
         <f t="shared" si="3"/>
-        <v>16.200000000000003</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -7582,7 +7578,7 @@
       </c>
       <c r="C120" s="19">
         <f t="shared" si="3"/>
-        <v>16.5</v>
+        <v>16.200000000000003</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -7593,7 +7589,7 @@
       </c>
       <c r="C121" s="19">
         <f t="shared" si="3"/>
-        <v>16.899999999999999</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -7604,7 +7600,7 @@
       </c>
       <c r="C122" s="19">
         <f t="shared" si="3"/>
-        <v>17.399999999999999</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -7615,7 +7611,7 @@
       </c>
       <c r="C123" s="19">
         <f t="shared" si="3"/>
-        <v>17.8</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -7623,7 +7619,7 @@
       <c r="B124" s="19"/>
       <c r="C124" s="19">
         <f t="shared" si="3"/>
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -7631,7 +7627,7 @@
       <c r="B125" s="19"/>
       <c r="C125" s="19">
         <f t="shared" si="3"/>
-        <v>18.700000000000003</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -7639,7 +7635,7 @@
       <c r="B126" s="19"/>
       <c r="C126" s="19">
         <f t="shared" si="3"/>
-        <v>19.099999999999998</v>
+        <v>18.700000000000003</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -7647,7 +7643,7 @@
       <c r="B127" s="19"/>
       <c r="C127" s="19">
         <f t="shared" si="3"/>
-        <v>19.600000000000001</v>
+        <v>19.099999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -7655,7 +7651,7 @@
       <c r="B128" s="19"/>
       <c r="C128" s="19">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -7663,7 +7659,7 @@
       <c r="B129" s="19"/>
       <c r="C129" s="19">
         <f t="shared" si="3"/>
-        <v>20.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -7671,7 +7667,7 @@
       <c r="B130" s="19"/>
       <c r="C130" s="19">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -7679,7 +7675,7 @@
       <c r="B131" s="19"/>
       <c r="C131" s="19">
         <f t="shared" si="3"/>
-        <v>21.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -7687,7 +7683,7 @@
       <c r="B132" s="19"/>
       <c r="C132" s="19">
         <f t="shared" si="3"/>
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -7695,7 +7691,7 @@
       <c r="B133" s="19"/>
       <c r="C133" s="19">
         <f t="shared" si="3"/>
-        <v>22.599999999999998</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -7703,7 +7699,7 @@
       <c r="B134" s="19"/>
       <c r="C134" s="19">
         <f t="shared" si="3"/>
-        <v>23.2</v>
+        <v>22.599999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -7711,7 +7707,7 @@
       <c r="B135" s="19"/>
       <c r="C135" s="19">
         <f t="shared" si="3"/>
-        <v>23.700000000000003</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -7719,7 +7715,7 @@
       <c r="B136" s="19"/>
       <c r="C136" s="19">
         <f t="shared" si="3"/>
-        <v>24.3</v>
+        <v>23.700000000000003</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -7727,7 +7723,7 @@
       <c r="B137" s="19"/>
       <c r="C137" s="19">
         <f t="shared" si="3"/>
-        <v>24.900000000000002</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -7735,7 +7731,7 @@
       <c r="B138" s="19"/>
       <c r="C138" s="19">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>24.900000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -7743,7 +7739,7 @@
       <c r="B139" s="19"/>
       <c r="C139" s="19">
         <f t="shared" si="3"/>
-        <v>26.099999999999998</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -7751,7 +7747,7 @@
       <c r="B140" s="19"/>
       <c r="C140" s="19">
         <f t="shared" si="3"/>
-        <v>26.7</v>
+        <v>26.099999999999998</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -7759,7 +7755,7 @@
       <c r="B141" s="19"/>
       <c r="C141" s="19">
         <f t="shared" si="3"/>
-        <v>27.400000000000002</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -7767,7 +7763,7 @@
       <c r="B142" s="19"/>
       <c r="C142" s="19">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>27.400000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -7775,7 +7771,7 @@
       <c r="B143" s="19"/>
       <c r="C143" s="19">
         <f t="shared" si="3"/>
-        <v>28.700000000000003</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -7783,7 +7779,7 @@
       <c r="B144" s="19"/>
       <c r="C144" s="19">
         <f t="shared" si="3"/>
-        <v>29.4</v>
+        <v>28.700000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -7791,7 +7787,7 @@
       <c r="B145" s="19"/>
       <c r="C145" s="19">
         <f t="shared" si="3"/>
-        <v>30.099999999999998</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -7799,7 +7795,7 @@
       <c r="B146" s="19"/>
       <c r="C146" s="19">
         <f t="shared" si="3"/>
-        <v>30.9</v>
+        <v>30.099999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -7807,7 +7803,7 @@
       <c r="B147" s="19"/>
       <c r="C147" s="19">
         <f t="shared" si="3"/>
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -7815,7 +7811,7 @@
       <c r="B148" s="19"/>
       <c r="C148" s="19">
         <f t="shared" si="3"/>
-        <v>32.400000000000006</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -7823,7 +7819,7 @@
       <c r="B149" s="19"/>
       <c r="C149" s="19">
         <f t="shared" si="3"/>
-        <v>33.199999999999996</v>
+        <v>32.400000000000006</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -7831,7 +7827,7 @@
       <c r="B150" s="19"/>
       <c r="C150" s="19">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>33.199999999999996</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -7839,7 +7835,7 @@
       <c r="B151" s="19"/>
       <c r="C151" s="19">
         <f t="shared" si="3"/>
-        <v>34.799999999999997</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -7847,7 +7843,7 @@
       <c r="B152" s="19"/>
       <c r="C152" s="19">
         <f t="shared" si="3"/>
-        <v>35.699999999999996</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -7855,7 +7851,7 @@
       <c r="B153" s="19"/>
       <c r="C153" s="19">
         <f t="shared" si="3"/>
-        <v>36.5</v>
+        <v>35.699999999999996</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -7863,7 +7859,7 @@
       <c r="B154" s="19"/>
       <c r="C154" s="19">
         <f t="shared" si="3"/>
-        <v>37.400000000000006</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -7871,7 +7867,7 @@
       <c r="B155" s="19"/>
       <c r="C155" s="19">
         <f t="shared" si="3"/>
-        <v>38.299999999999997</v>
+        <v>37.400000000000006</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -7879,7 +7875,7 @@
       <c r="B156" s="19"/>
       <c r="C156" s="19">
         <f t="shared" si="3"/>
-        <v>39.200000000000003</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -7887,7 +7883,7 @@
       <c r="B157" s="19"/>
       <c r="C157" s="19">
         <f t="shared" si="3"/>
-        <v>40.199999999999996</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -7895,7 +7891,7 @@
       <c r="B158" s="19"/>
       <c r="C158" s="19">
         <f t="shared" si="3"/>
-        <v>41.2</v>
+        <v>40.199999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -7903,7 +7899,7 @@
       <c r="B159" s="19"/>
       <c r="C159" s="19">
         <f t="shared" si="3"/>
-        <v>42.199999999999996</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -7911,7 +7907,7 @@
       <c r="B160" s="19"/>
       <c r="C160" s="19">
         <f t="shared" si="3"/>
-        <v>43.2</v>
+        <v>42.199999999999996</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -7919,7 +7915,7 @@
       <c r="B161" s="19"/>
       <c r="C161" s="19">
         <f t="shared" si="3"/>
-        <v>44.2</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -7927,7 +7923,7 @@
       <c r="B162" s="19"/>
       <c r="C162" s="19">
         <f t="shared" si="3"/>
-        <v>45.300000000000004</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -7935,23 +7931,23 @@
       <c r="B163" s="19"/>
       <c r="C163" s="19">
         <f t="shared" si="3"/>
-        <v>46.4</v>
+        <v>45.300000000000004</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19">
-        <f t="shared" ref="C164:C227" si="4">C68*10</f>
-        <v>47.5</v>
+        <f t="shared" si="3"/>
+        <v>46.4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19">
-        <f t="shared" si="4"/>
-        <v>48.7</v>
+        <f t="shared" ref="C165:C228" si="4">C68*10</f>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -7959,7 +7955,7 @@
       <c r="B166" s="19"/>
       <c r="C166" s="19">
         <f t="shared" si="4"/>
-        <v>49.900000000000006</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -7967,7 +7963,7 @@
       <c r="B167" s="19"/>
       <c r="C167" s="19">
         <f t="shared" si="4"/>
-        <v>51.1</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -7975,7 +7971,7 @@
       <c r="B168" s="19"/>
       <c r="C168" s="19">
         <f t="shared" si="4"/>
-        <v>52.300000000000004</v>
+        <v>49.900000000000006</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -7983,7 +7979,7 @@
       <c r="B169" s="19"/>
       <c r="C169" s="19">
         <f t="shared" si="4"/>
-        <v>53.6</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -7991,7 +7987,7 @@
       <c r="B170" s="19"/>
       <c r="C170" s="19">
         <f t="shared" si="4"/>
-        <v>54.900000000000006</v>
+        <v>52.300000000000004</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -7999,7 +7995,7 @@
       <c r="B171" s="19"/>
       <c r="C171" s="19">
         <f t="shared" si="4"/>
-        <v>56.2</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8007,7 +8003,7 @@
       <c r="B172" s="19"/>
       <c r="C172" s="19">
         <f t="shared" si="4"/>
-        <v>57.599999999999994</v>
+        <v>54.900000000000006</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -8015,7 +8011,7 @@
       <c r="B173" s="19"/>
       <c r="C173" s="19">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -8023,7 +8019,7 @@
       <c r="B174" s="19"/>
       <c r="C174" s="19">
         <f t="shared" si="4"/>
-        <v>60.4</v>
+        <v>57.599999999999994</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -8031,7 +8027,7 @@
       <c r="B175" s="19"/>
       <c r="C175" s="19">
         <f t="shared" si="4"/>
-        <v>61.900000000000006</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -8039,7 +8035,7 @@
       <c r="B176" s="19"/>
       <c r="C176" s="19">
         <f t="shared" si="4"/>
-        <v>63.4</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -8047,7 +8043,7 @@
       <c r="B177" s="19"/>
       <c r="C177" s="19">
         <f t="shared" si="4"/>
-        <v>64.900000000000006</v>
+        <v>61.900000000000006</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -8055,7 +8051,7 @@
       <c r="B178" s="19"/>
       <c r="C178" s="19">
         <f t="shared" si="4"/>
-        <v>66.5</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -8063,7 +8059,7 @@
       <c r="B179" s="19"/>
       <c r="C179" s="19">
         <f t="shared" si="4"/>
-        <v>68.099999999999994</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -8071,7 +8067,7 @@
       <c r="B180" s="19"/>
       <c r="C180" s="19">
         <f t="shared" si="4"/>
-        <v>69.800000000000011</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -8079,7 +8075,7 @@
       <c r="B181" s="19"/>
       <c r="C181" s="19">
         <f t="shared" si="4"/>
-        <v>71.5</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -8087,7 +8083,7 @@
       <c r="B182" s="19"/>
       <c r="C182" s="19">
         <f t="shared" si="4"/>
-        <v>73.2</v>
+        <v>69.800000000000011</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -8095,7 +8091,7 @@
       <c r="B183" s="19"/>
       <c r="C183" s="19">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -8103,7 +8099,7 @@
       <c r="B184" s="19"/>
       <c r="C184" s="19">
         <f t="shared" si="4"/>
-        <v>76.8</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -8111,7 +8107,7 @@
       <c r="B185" s="19"/>
       <c r="C185" s="19">
         <f t="shared" si="4"/>
-        <v>78.7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -8119,7 +8115,7 @@
       <c r="B186" s="19"/>
       <c r="C186" s="19">
         <f t="shared" si="4"/>
-        <v>80.600000000000009</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -8127,7 +8123,7 @@
       <c r="B187" s="19"/>
       <c r="C187" s="19">
         <f t="shared" si="4"/>
-        <v>82.5</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -8135,7 +8131,7 @@
       <c r="B188" s="19"/>
       <c r="C188" s="19">
         <f t="shared" si="4"/>
-        <v>84.5</v>
+        <v>80.600000000000009</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -8143,7 +8139,7 @@
       <c r="B189" s="19"/>
       <c r="C189" s="19">
         <f t="shared" si="4"/>
-        <v>86.6</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -8151,7 +8147,7 @@
       <c r="B190" s="19"/>
       <c r="C190" s="19">
         <f t="shared" si="4"/>
-        <v>88.699999999999989</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -8159,7 +8155,7 @@
       <c r="B191" s="19"/>
       <c r="C191" s="19">
         <f t="shared" si="4"/>
-        <v>90.9</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -8167,7 +8163,7 @@
       <c r="B192" s="19"/>
       <c r="C192" s="19">
         <f t="shared" si="4"/>
-        <v>93.100000000000009</v>
+        <v>88.699999999999989</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -8175,7 +8171,7 @@
       <c r="B193" s="19"/>
       <c r="C193" s="19">
         <f t="shared" si="4"/>
-        <v>95.3</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -8183,7 +8179,7 @@
       <c r="B194" s="19"/>
       <c r="C194" s="19">
         <f t="shared" si="4"/>
-        <v>97.6</v>
+        <v>93.100000000000009</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -8191,7 +8187,7 @@
       <c r="B195" s="19"/>
       <c r="C195" s="19">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -8199,7 +8195,7 @@
       <c r="B196" s="19"/>
       <c r="C196" s="19">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -8207,7 +8203,7 @@
       <c r="B197" s="19"/>
       <c r="C197" s="19">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -8215,7 +8211,7 @@
       <c r="B198" s="19"/>
       <c r="C198" s="19">
         <f t="shared" si="4"/>
-        <v>107.00000000000001</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -8223,7 +8219,7 @@
       <c r="B199" s="19"/>
       <c r="C199" s="19">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -8231,7 +8227,7 @@
       <c r="B200" s="19"/>
       <c r="C200" s="19">
         <f t="shared" si="4"/>
-        <v>112.99999999999999</v>
+        <v>107.00000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -8239,7 +8235,7 @@
       <c r="B201" s="19"/>
       <c r="C201" s="19">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -8247,7 +8243,7 @@
       <c r="B202" s="19"/>
       <c r="C202" s="19">
         <f t="shared" si="4"/>
-        <v>117.99999999999999</v>
+        <v>112.99999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -8255,7 +8251,7 @@
       <c r="B203" s="19"/>
       <c r="C203" s="19">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -8263,7 +8259,7 @@
       <c r="B204" s="19"/>
       <c r="C204" s="19">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>117.99999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -8271,7 +8267,7 @@
       <c r="B205" s="19"/>
       <c r="C205" s="19">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -8279,7 +8275,7 @@
       <c r="B206" s="19"/>
       <c r="C206" s="19">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -8287,7 +8283,7 @@
       <c r="B207" s="19"/>
       <c r="C207" s="19">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -8295,7 +8291,7 @@
       <c r="B208" s="19"/>
       <c r="C208" s="19">
         <f t="shared" si="4"/>
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -8303,7 +8299,7 @@
       <c r="B209" s="19"/>
       <c r="C209" s="19">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -8311,7 +8307,7 @@
       <c r="B210" s="19"/>
       <c r="C210" s="19">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -8319,7 +8315,7 @@
       <c r="B211" s="19"/>
       <c r="C211" s="19">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -8327,7 +8323,7 @@
       <c r="B212" s="19"/>
       <c r="C212" s="19">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -8335,7 +8331,7 @@
       <c r="B213" s="19"/>
       <c r="C213" s="19">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -8343,7 +8339,7 @@
       <c r="B214" s="19"/>
       <c r="C214" s="19">
         <f t="shared" si="4"/>
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -8351,7 +8347,7 @@
       <c r="B215" s="19"/>
       <c r="C215" s="19">
         <f t="shared" si="4"/>
-        <v>162.00000000000003</v>
+        <v>154</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -8359,7 +8355,7 @@
       <c r="B216" s="19"/>
       <c r="C216" s="19">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -8367,7 +8363,7 @@
       <c r="B217" s="19"/>
       <c r="C217" s="19">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>162.00000000000003</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -8375,7 +8371,7 @@
       <c r="B218" s="19"/>
       <c r="C218" s="19">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -8383,7 +8379,7 @@
       <c r="B219" s="19"/>
       <c r="C219" s="19">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -8391,7 +8387,7 @@
       <c r="B220" s="19"/>
       <c r="C220" s="19">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -8399,7 +8395,7 @@
       <c r="B221" s="19"/>
       <c r="C221" s="19">
         <f t="shared" si="4"/>
-        <v>187.00000000000003</v>
+        <v>178</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -8407,7 +8403,7 @@
       <c r="B222" s="19"/>
       <c r="C222" s="19">
         <f t="shared" si="4"/>
-        <v>190.99999999999997</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -8415,7 +8411,7 @@
       <c r="B223" s="19"/>
       <c r="C223" s="19">
         <f t="shared" si="4"/>
-        <v>196</v>
+        <v>187.00000000000003</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -8423,7 +8419,7 @@
       <c r="B224" s="19"/>
       <c r="C224" s="19">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>190.99999999999997</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -8431,7 +8427,7 @@
       <c r="B225" s="19"/>
       <c r="C225" s="19">
         <f t="shared" si="4"/>
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -8439,7 +8435,7 @@
       <c r="B226" s="19"/>
       <c r="C226" s="19">
         <f t="shared" si="4"/>
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -8447,23 +8443,23 @@
       <c r="B227" s="19"/>
       <c r="C227" s="19">
         <f t="shared" si="4"/>
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="19"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19">
-        <f t="shared" ref="C228:C291" si="5">C132*10</f>
-        <v>221</v>
+        <f t="shared" si="4"/>
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="19"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19">
-        <f t="shared" si="5"/>
-        <v>225.99999999999997</v>
+        <f t="shared" ref="C229:C292" si="5">C132*10</f>
+        <v>215</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -8471,7 +8467,7 @@
       <c r="B230" s="19"/>
       <c r="C230" s="19">
         <f t="shared" si="5"/>
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -8479,7 +8475,7 @@
       <c r="B231" s="19"/>
       <c r="C231" s="19">
         <f t="shared" si="5"/>
-        <v>237.00000000000003</v>
+        <v>225.99999999999997</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -8487,7 +8483,7 @@
       <c r="B232" s="19"/>
       <c r="C232" s="19">
         <f t="shared" si="5"/>
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -8495,7 +8491,7 @@
       <c r="B233" s="19"/>
       <c r="C233" s="19">
         <f t="shared" si="5"/>
-        <v>249.00000000000003</v>
+        <v>237.00000000000003</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -8503,7 +8499,7 @@
       <c r="B234" s="19"/>
       <c r="C234" s="19">
         <f t="shared" si="5"/>
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -8511,7 +8507,7 @@
       <c r="B235" s="19"/>
       <c r="C235" s="19">
         <f t="shared" si="5"/>
-        <v>261</v>
+        <v>249.00000000000003</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -8519,7 +8515,7 @@
       <c r="B236" s="19"/>
       <c r="C236" s="19">
         <f t="shared" si="5"/>
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -8527,7 +8523,7 @@
       <c r="B237" s="19"/>
       <c r="C237" s="19">
         <f t="shared" si="5"/>
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -8535,7 +8531,7 @@
       <c r="B238" s="19"/>
       <c r="C238" s="19">
         <f t="shared" si="5"/>
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -8543,7 +8539,7 @@
       <c r="B239" s="19"/>
       <c r="C239" s="19">
         <f t="shared" si="5"/>
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -8551,7 +8547,7 @@
       <c r="B240" s="19"/>
       <c r="C240" s="19">
         <f t="shared" si="5"/>
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -8559,7 +8555,7 @@
       <c r="B241" s="19"/>
       <c r="C241" s="19">
         <f t="shared" si="5"/>
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -8567,7 +8563,7 @@
       <c r="B242" s="19"/>
       <c r="C242" s="19">
         <f t="shared" si="5"/>
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -8575,7 +8571,7 @@
       <c r="B243" s="19"/>
       <c r="C243" s="19">
         <f t="shared" si="5"/>
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -8583,7 +8579,7 @@
       <c r="B244" s="19"/>
       <c r="C244" s="19">
         <f t="shared" si="5"/>
-        <v>324.00000000000006</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -8591,7 +8587,7 @@
       <c r="B245" s="19"/>
       <c r="C245" s="19">
         <f t="shared" si="5"/>
-        <v>331.99999999999994</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -8599,7 +8595,7 @@
       <c r="B246" s="19"/>
       <c r="C246" s="19">
         <f t="shared" si="5"/>
-        <v>340</v>
+        <v>324.00000000000006</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -8607,7 +8603,7 @@
       <c r="B247" s="19"/>
       <c r="C247" s="19">
         <f t="shared" si="5"/>
-        <v>348</v>
+        <v>331.99999999999994</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -8615,7 +8611,7 @@
       <c r="B248" s="19"/>
       <c r="C248" s="19">
         <f t="shared" si="5"/>
-        <v>356.99999999999994</v>
+        <v>340</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -8623,7 +8619,7 @@
       <c r="B249" s="19"/>
       <c r="C249" s="19">
         <f t="shared" si="5"/>
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -8631,7 +8627,7 @@
       <c r="B250" s="19"/>
       <c r="C250" s="19">
         <f t="shared" si="5"/>
-        <v>374.00000000000006</v>
+        <v>356.99999999999994</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -8639,7 +8635,7 @@
       <c r="B251" s="19"/>
       <c r="C251" s="19">
         <f t="shared" si="5"/>
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -8647,7 +8643,7 @@
       <c r="B252" s="19"/>
       <c r="C252" s="19">
         <f t="shared" si="5"/>
-        <v>392</v>
+        <v>374.00000000000006</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -8655,7 +8651,7 @@
       <c r="B253" s="19"/>
       <c r="C253" s="19">
         <f t="shared" si="5"/>
-        <v>401.99999999999994</v>
+        <v>383</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -8663,7 +8659,7 @@
       <c r="B254" s="19"/>
       <c r="C254" s="19">
         <f t="shared" si="5"/>
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -8671,7 +8667,7 @@
       <c r="B255" s="19"/>
       <c r="C255" s="19">
         <f t="shared" si="5"/>
-        <v>421.99999999999994</v>
+        <v>401.99999999999994</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -8679,7 +8675,7 @@
       <c r="B256" s="19"/>
       <c r="C256" s="19">
         <f t="shared" si="5"/>
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -8687,7 +8683,7 @@
       <c r="B257" s="19"/>
       <c r="C257" s="19">
         <f t="shared" si="5"/>
-        <v>442</v>
+        <v>421.99999999999994</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -8695,7 +8691,7 @@
       <c r="B258" s="19"/>
       <c r="C258" s="19">
         <f t="shared" si="5"/>
-        <v>453.00000000000006</v>
+        <v>432</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -8703,7 +8699,7 @@
       <c r="B259" s="19"/>
       <c r="C259" s="19">
         <f t="shared" si="5"/>
-        <v>464</v>
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -8711,7 +8707,7 @@
       <c r="B260" s="19"/>
       <c r="C260" s="19">
         <f t="shared" si="5"/>
-        <v>475</v>
+        <v>453.00000000000006</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -8719,7 +8715,7 @@
       <c r="B261" s="19"/>
       <c r="C261" s="19">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -8727,7 +8723,7 @@
       <c r="B262" s="19"/>
       <c r="C262" s="19">
         <f t="shared" si="5"/>
-        <v>499.00000000000006</v>
+        <v>470</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -8735,7 +8731,7 @@
       <c r="B263" s="19"/>
       <c r="C263" s="19">
         <f t="shared" si="5"/>
-        <v>511</v>
+        <v>475</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -8743,7 +8739,7 @@
       <c r="B264" s="19"/>
       <c r="C264" s="19">
         <f t="shared" si="5"/>
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -8751,7 +8747,7 @@
       <c r="B265" s="19"/>
       <c r="C265" s="19">
         <f t="shared" si="5"/>
-        <v>536</v>
+        <v>499.00000000000006</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -8759,7 +8755,7 @@
       <c r="B266" s="19"/>
       <c r="C266" s="19">
         <f t="shared" si="5"/>
-        <v>549</v>
+        <v>511</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -8767,7 +8763,7 @@
       <c r="B267" s="19"/>
       <c r="C267" s="19">
         <f t="shared" si="5"/>
-        <v>562</v>
+        <v>523</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -8775,7 +8771,7 @@
       <c r="B268" s="19"/>
       <c r="C268" s="19">
         <f t="shared" si="5"/>
-        <v>576</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -8783,7 +8779,7 @@
       <c r="B269" s="19"/>
       <c r="C269" s="19">
         <f t="shared" si="5"/>
-        <v>590</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -8791,7 +8787,7 @@
       <c r="B270" s="19"/>
       <c r="C270" s="19">
         <f t="shared" si="5"/>
-        <v>604</v>
+        <v>562</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -8799,7 +8795,7 @@
       <c r="B271" s="19"/>
       <c r="C271" s="19">
         <f t="shared" si="5"/>
-        <v>619</v>
+        <v>576</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -8807,7 +8803,7 @@
       <c r="B272" s="19"/>
       <c r="C272" s="19">
         <f t="shared" si="5"/>
-        <v>634</v>
+        <v>590</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -8815,7 +8811,7 @@
       <c r="B273" s="19"/>
       <c r="C273" s="19">
         <f t="shared" si="5"/>
-        <v>649</v>
+        <v>604</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -8823,7 +8819,7 @@
       <c r="B274" s="19"/>
       <c r="C274" s="19">
         <f t="shared" si="5"/>
-        <v>665</v>
+        <v>619</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -8831,7 +8827,7 @@
       <c r="B275" s="19"/>
       <c r="C275" s="19">
         <f t="shared" si="5"/>
-        <v>681</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -8839,7 +8835,7 @@
       <c r="B276" s="19"/>
       <c r="C276" s="19">
         <f t="shared" si="5"/>
-        <v>698.00000000000011</v>
+        <v>649</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -8847,7 +8843,7 @@
       <c r="B277" s="19"/>
       <c r="C277" s="19">
         <f t="shared" si="5"/>
-        <v>715</v>
+        <v>665</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -8855,7 +8851,7 @@
       <c r="B278" s="19"/>
       <c r="C278" s="19">
         <f t="shared" si="5"/>
-        <v>732</v>
+        <v>681</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -8863,7 +8859,7 @@
       <c r="B279" s="19"/>
       <c r="C279" s="19">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>698.00000000000011</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -8871,7 +8867,7 @@
       <c r="B280" s="19"/>
       <c r="C280" s="19">
         <f t="shared" si="5"/>
-        <v>768</v>
+        <v>715</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -8879,7 +8875,7 @@
       <c r="B281" s="19"/>
       <c r="C281" s="19">
         <f t="shared" si="5"/>
-        <v>787</v>
+        <v>732</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -8887,7 +8883,7 @@
       <c r="B282" s="19"/>
       <c r="C282" s="19">
         <f t="shared" si="5"/>
-        <v>806.00000000000011</v>
+        <v>750</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -8895,7 +8891,7 @@
       <c r="B283" s="19"/>
       <c r="C283" s="19">
         <f t="shared" si="5"/>
-        <v>825</v>
+        <v>768</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -8903,7 +8899,7 @@
       <c r="B284" s="19"/>
       <c r="C284" s="19">
         <f t="shared" si="5"/>
-        <v>845</v>
+        <v>787</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -8911,7 +8907,7 @@
       <c r="B285" s="19"/>
       <c r="C285" s="19">
         <f t="shared" si="5"/>
-        <v>866</v>
+        <v>806.00000000000011</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -8919,7 +8915,7 @@
       <c r="B286" s="19"/>
       <c r="C286" s="19">
         <f t="shared" si="5"/>
-        <v>886.99999999999989</v>
+        <v>825</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -8927,7 +8923,7 @@
       <c r="B287" s="19"/>
       <c r="C287" s="19">
         <f t="shared" si="5"/>
-        <v>909</v>
+        <v>845</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -8935,7 +8931,7 @@
       <c r="B288" s="19"/>
       <c r="C288" s="19">
         <f t="shared" si="5"/>
-        <v>931.00000000000011</v>
+        <v>866</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -8943,7 +8939,7 @@
       <c r="B289" s="19"/>
       <c r="C289" s="19">
         <f t="shared" si="5"/>
-        <v>953</v>
+        <v>886.99999999999989</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -8951,7 +8947,7 @@
       <c r="B290" s="19"/>
       <c r="C290" s="19">
         <f t="shared" si="5"/>
-        <v>976</v>
+        <v>909</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -8959,23 +8955,23 @@
       <c r="B291" s="19"/>
       <c r="C291" s="19">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>931.00000000000011</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="19"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19">
-        <f t="shared" ref="C292:C355" si="6">C196*10</f>
-        <v>1020</v>
+        <f t="shared" si="5"/>
+        <v>953</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="19"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19">
-        <f t="shared" si="6"/>
-        <v>1050</v>
+        <f t="shared" ref="C293:C356" si="6">C196*10</f>
+        <v>976</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -8983,7 +8979,7 @@
       <c r="B294" s="19"/>
       <c r="C294" s="19">
         <f t="shared" si="6"/>
-        <v>1070.0000000000002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -8991,7 +8987,7 @@
       <c r="B295" s="19"/>
       <c r="C295" s="19">
         <f t="shared" si="6"/>
-        <v>1100</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -8999,7 +8995,7 @@
       <c r="B296" s="19"/>
       <c r="C296" s="19">
         <f t="shared" si="6"/>
-        <v>1129.9999999999998</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -9007,7 +9003,7 @@
       <c r="B297" s="19"/>
       <c r="C297" s="19">
         <f t="shared" si="6"/>
-        <v>1150</v>
+        <v>1070.0000000000002</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -9015,7 +9011,7 @@
       <c r="B298" s="19"/>
       <c r="C298" s="19">
         <f t="shared" si="6"/>
-        <v>1179.9999999999998</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -9023,7 +9019,7 @@
       <c r="B299" s="19"/>
       <c r="C299" s="19">
         <f t="shared" si="6"/>
-        <v>1210</v>
+        <v>1129.9999999999998</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -9031,7 +9027,7 @@
       <c r="B300" s="19"/>
       <c r="C300" s="19">
         <f t="shared" si="6"/>
-        <v>1240</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -9039,7 +9035,7 @@
       <c r="B301" s="19"/>
       <c r="C301" s="19">
         <f t="shared" si="6"/>
-        <v>1270</v>
+        <v>1179.9999999999998</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -9047,7 +9043,7 @@
       <c r="B302" s="19"/>
       <c r="C302" s="19">
         <f t="shared" si="6"/>
-        <v>1300</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -9055,7 +9051,7 @@
       <c r="B303" s="19"/>
       <c r="C303" s="19">
         <f t="shared" si="6"/>
-        <v>1330</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -9063,7 +9059,7 @@
       <c r="B304" s="19"/>
       <c r="C304" s="19">
         <f t="shared" si="6"/>
-        <v>1370</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -9071,7 +9067,7 @@
       <c r="B305" s="19"/>
       <c r="C305" s="19">
         <f t="shared" si="6"/>
-        <v>1400</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -9079,7 +9075,7 @@
       <c r="B306" s="19"/>
       <c r="C306" s="19">
         <f t="shared" si="6"/>
-        <v>1430</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -9087,7 +9083,7 @@
       <c r="B307" s="19"/>
       <c r="C307" s="19">
         <f t="shared" si="6"/>
-        <v>1470</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -9095,7 +9091,7 @@
       <c r="B308" s="19"/>
       <c r="C308" s="19">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -9103,7 +9099,7 @@
       <c r="B309" s="19"/>
       <c r="C309" s="19">
         <f t="shared" si="6"/>
-        <v>1540</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -9111,7 +9107,7 @@
       <c r="B310" s="19"/>
       <c r="C310" s="19">
         <f t="shared" si="6"/>
-        <v>1580</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -9119,7 +9115,7 @@
       <c r="B311" s="19"/>
       <c r="C311" s="19">
         <f t="shared" si="6"/>
-        <v>1620.0000000000002</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -9127,7 +9123,7 @@
       <c r="B312" s="19"/>
       <c r="C312" s="19">
         <f t="shared" si="6"/>
-        <v>1650</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -9135,7 +9131,7 @@
       <c r="B313" s="19"/>
       <c r="C313" s="19">
         <f t="shared" si="6"/>
-        <v>1690</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -9143,7 +9139,7 @@
       <c r="B314" s="19"/>
       <c r="C314" s="19">
         <f t="shared" si="6"/>
-        <v>1740</v>
+        <v>1620.0000000000002</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -9151,7 +9147,7 @@
       <c r="B315" s="19"/>
       <c r="C315" s="19">
         <f t="shared" si="6"/>
-        <v>1780</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -9159,7 +9155,7 @@
       <c r="B316" s="19"/>
       <c r="C316" s="19">
         <f t="shared" si="6"/>
-        <v>1820</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -9167,7 +9163,7 @@
       <c r="B317" s="19"/>
       <c r="C317" s="19">
         <f t="shared" si="6"/>
-        <v>1870.0000000000002</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -9175,7 +9171,7 @@
       <c r="B318" s="19"/>
       <c r="C318" s="19">
         <f t="shared" si="6"/>
-        <v>1909.9999999999998</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -9183,7 +9179,7 @@
       <c r="B319" s="19"/>
       <c r="C319" s="19">
         <f t="shared" si="6"/>
-        <v>1960</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -9191,7 +9187,7 @@
       <c r="B320" s="19"/>
       <c r="C320" s="19">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>1870.0000000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -9199,7 +9195,7 @@
       <c r="B321" s="19"/>
       <c r="C321" s="19">
         <f t="shared" si="6"/>
-        <v>2050</v>
+        <v>1909.9999999999998</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -9207,7 +9203,7 @@
       <c r="B322" s="19"/>
       <c r="C322" s="19">
         <f t="shared" si="6"/>
-        <v>2100</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -9215,7 +9211,7 @@
       <c r="B323" s="19"/>
       <c r="C323" s="19">
         <f t="shared" si="6"/>
-        <v>2150</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -9223,7 +9219,7 @@
       <c r="B324" s="19"/>
       <c r="C324" s="19">
         <f t="shared" si="6"/>
-        <v>2210</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -9231,7 +9227,7 @@
       <c r="B325" s="19"/>
       <c r="C325" s="19">
         <f t="shared" si="6"/>
-        <v>2259.9999999999995</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -9239,7 +9235,7 @@
       <c r="B326" s="19"/>
       <c r="C326" s="19">
         <f t="shared" si="6"/>
-        <v>2320</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -9247,7 +9243,7 @@
       <c r="B327" s="19"/>
       <c r="C327" s="19">
         <f t="shared" si="6"/>
-        <v>2370.0000000000005</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -9255,7 +9251,7 @@
       <c r="B328" s="19"/>
       <c r="C328" s="19">
         <f t="shared" si="6"/>
-        <v>2430</v>
+        <v>2259.9999999999995</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -9263,7 +9259,7 @@
       <c r="B329" s="19"/>
       <c r="C329" s="19">
         <f t="shared" si="6"/>
-        <v>2490.0000000000005</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -9271,7 +9267,7 @@
       <c r="B330" s="19"/>
       <c r="C330" s="19">
         <f t="shared" si="6"/>
-        <v>2550</v>
+        <v>2370.0000000000005</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -9279,7 +9275,7 @@
       <c r="B331" s="19"/>
       <c r="C331" s="19">
         <f t="shared" si="6"/>
-        <v>2610</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -9287,7 +9283,7 @@
       <c r="B332" s="19"/>
       <c r="C332" s="19">
         <f t="shared" si="6"/>
-        <v>2670</v>
+        <v>2490.0000000000005</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -9295,7 +9291,7 @@
       <c r="B333" s="19"/>
       <c r="C333" s="19">
         <f t="shared" si="6"/>
-        <v>2740</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -9303,7 +9299,7 @@
       <c r="B334" s="19"/>
       <c r="C334" s="19">
         <f t="shared" si="6"/>
-        <v>2800</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -9311,7 +9307,7 @@
       <c r="B335" s="19"/>
       <c r="C335" s="19">
         <f t="shared" si="6"/>
-        <v>2870</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -9319,7 +9315,7 @@
       <c r="B336" s="19"/>
       <c r="C336" s="19">
         <f t="shared" si="6"/>
-        <v>2940</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -9327,7 +9323,7 @@
       <c r="B337" s="19"/>
       <c r="C337" s="19">
         <f t="shared" si="6"/>
-        <v>3010</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -9335,7 +9331,7 @@
       <c r="B338" s="19"/>
       <c r="C338" s="19">
         <f t="shared" si="6"/>
-        <v>3090</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -9343,7 +9339,7 @@
       <c r="B339" s="19"/>
       <c r="C339" s="19">
         <f t="shared" si="6"/>
-        <v>3160</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -9351,7 +9347,7 @@
       <c r="B340" s="19"/>
       <c r="C340" s="19">
         <f t="shared" si="6"/>
-        <v>3240.0000000000005</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -9359,7 +9355,7 @@
       <c r="B341" s="19"/>
       <c r="C341" s="19">
         <f t="shared" si="6"/>
-        <v>3319.9999999999995</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -9367,7 +9363,7 @@
       <c r="B342" s="19"/>
       <c r="C342" s="19">
         <f t="shared" si="6"/>
-        <v>3400</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -9375,7 +9371,7 @@
       <c r="B343" s="19"/>
       <c r="C343" s="19">
         <f t="shared" si="6"/>
-        <v>3480</v>
+        <v>3240.0000000000005</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -9383,7 +9379,7 @@
       <c r="B344" s="19"/>
       <c r="C344" s="19">
         <f t="shared" si="6"/>
-        <v>3569.9999999999995</v>
+        <v>3319.9999999999995</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -9391,7 +9387,7 @@
       <c r="B345" s="19"/>
       <c r="C345" s="19">
         <f t="shared" si="6"/>
-        <v>3650</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -9399,7 +9395,7 @@
       <c r="B346" s="19"/>
       <c r="C346" s="19">
         <f t="shared" si="6"/>
-        <v>3740.0000000000005</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -9407,7 +9403,7 @@
       <c r="B347" s="19"/>
       <c r="C347" s="19">
         <f t="shared" si="6"/>
-        <v>3830</v>
+        <v>3569.9999999999995</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -9415,7 +9411,7 @@
       <c r="B348" s="19"/>
       <c r="C348" s="19">
         <f t="shared" si="6"/>
-        <v>3920</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -9423,7 +9419,7 @@
       <c r="B349" s="19"/>
       <c r="C349" s="19">
         <f t="shared" si="6"/>
-        <v>4019.9999999999995</v>
+        <v>3740.0000000000005</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -9431,7 +9427,7 @@
       <c r="B350" s="19"/>
       <c r="C350" s="19">
         <f t="shared" si="6"/>
-        <v>4120</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -9439,7 +9435,7 @@
       <c r="B351" s="19"/>
       <c r="C351" s="19">
         <f t="shared" si="6"/>
-        <v>4219.9999999999991</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -9447,7 +9443,7 @@
       <c r="B352" s="19"/>
       <c r="C352" s="19">
         <f t="shared" si="6"/>
-        <v>4320</v>
+        <v>4019.9999999999995</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -9455,7 +9451,7 @@
       <c r="B353" s="19"/>
       <c r="C353" s="19">
         <f t="shared" si="6"/>
-        <v>4420</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -9463,7 +9459,7 @@
       <c r="B354" s="19"/>
       <c r="C354" s="19">
         <f t="shared" si="6"/>
-        <v>4530.0000000000009</v>
+        <v>4219.9999999999991</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -9471,23 +9467,23 @@
       <c r="B355" s="19"/>
       <c r="C355" s="19">
         <f t="shared" si="6"/>
-        <v>4640</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="19"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19">
-        <f t="shared" ref="C356:C419" si="7">C260*10</f>
-        <v>4750</v>
+        <f t="shared" si="6"/>
+        <v>4420</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="19"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19">
-        <f t="shared" si="7"/>
-        <v>4870</v>
+        <f t="shared" ref="C357:C420" si="7">C260*10</f>
+        <v>4530.0000000000009</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -9495,7 +9491,7 @@
       <c r="B358" s="19"/>
       <c r="C358" s="19">
         <f t="shared" si="7"/>
-        <v>4990.0000000000009</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -9503,7 +9499,7 @@
       <c r="B359" s="19"/>
       <c r="C359" s="19">
         <f t="shared" si="7"/>
-        <v>5110</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -9511,7 +9507,7 @@
       <c r="B360" s="19"/>
       <c r="C360" s="19">
         <f t="shared" si="7"/>
-        <v>5230</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -9519,7 +9515,7 @@
       <c r="B361" s="19"/>
       <c r="C361" s="19">
         <f t="shared" si="7"/>
-        <v>5360</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -9527,7 +9523,7 @@
       <c r="B362" s="19"/>
       <c r="C362" s="19">
         <f t="shared" si="7"/>
-        <v>5490</v>
+        <v>4990.0000000000009</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -9535,7 +9531,7 @@
       <c r="B363" s="19"/>
       <c r="C363" s="19">
         <f t="shared" si="7"/>
-        <v>5620</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -9543,7 +9539,7 @@
       <c r="B364" s="19"/>
       <c r="C364" s="19">
         <f t="shared" si="7"/>
-        <v>5760</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -9551,7 +9547,7 @@
       <c r="B365" s="19"/>
       <c r="C365" s="19">
         <f t="shared" si="7"/>
-        <v>5900</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -9559,7 +9555,7 @@
       <c r="B366" s="19"/>
       <c r="C366" s="19">
         <f t="shared" si="7"/>
-        <v>6040</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -9567,7 +9563,7 @@
       <c r="B367" s="19"/>
       <c r="C367" s="19">
         <f t="shared" si="7"/>
-        <v>6190</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -9575,7 +9571,7 @@
       <c r="B368" s="19"/>
       <c r="C368" s="19">
         <f t="shared" si="7"/>
-        <v>6340</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -9583,7 +9579,7 @@
       <c r="B369" s="19"/>
       <c r="C369" s="19">
         <f t="shared" si="7"/>
-        <v>6490</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -9591,7 +9587,7 @@
       <c r="B370" s="19"/>
       <c r="C370" s="19">
         <f t="shared" si="7"/>
-        <v>6650</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -9599,7 +9595,7 @@
       <c r="B371" s="19"/>
       <c r="C371" s="19">
         <f t="shared" si="7"/>
-        <v>6810</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -9607,7 +9603,7 @@
       <c r="B372" s="19"/>
       <c r="C372" s="19">
         <f t="shared" si="7"/>
-        <v>6980.0000000000009</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -9615,7 +9611,7 @@
       <c r="B373" s="19"/>
       <c r="C373" s="19">
         <f t="shared" si="7"/>
-        <v>7150</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -9623,7 +9619,7 @@
       <c r="B374" s="19"/>
       <c r="C374" s="19">
         <f t="shared" si="7"/>
-        <v>7320</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -9631,7 +9627,7 @@
       <c r="B375" s="19"/>
       <c r="C375" s="19">
         <f t="shared" si="7"/>
-        <v>7500</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -9639,7 +9635,7 @@
       <c r="B376" s="19"/>
       <c r="C376" s="19">
         <f t="shared" si="7"/>
-        <v>7680</v>
+        <v>6980.0000000000009</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -9647,7 +9643,7 @@
       <c r="B377" s="19"/>
       <c r="C377" s="19">
         <f t="shared" si="7"/>
-        <v>7870</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -9655,7 +9651,7 @@
       <c r="B378" s="19"/>
       <c r="C378" s="19">
         <f t="shared" si="7"/>
-        <v>8060.0000000000009</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -9663,7 +9659,7 @@
       <c r="B379" s="19"/>
       <c r="C379" s="19">
         <f t="shared" si="7"/>
-        <v>8250</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -9671,7 +9667,7 @@
       <c r="B380" s="19"/>
       <c r="C380" s="19">
         <f t="shared" si="7"/>
-        <v>8450</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -9679,7 +9675,7 @@
       <c r="B381" s="19"/>
       <c r="C381" s="19">
         <f t="shared" si="7"/>
-        <v>8660</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -9687,7 +9683,7 @@
       <c r="B382" s="19"/>
       <c r="C382" s="19">
         <f t="shared" si="7"/>
-        <v>8869.9999999999982</v>
+        <v>8060.0000000000009</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -9695,7 +9691,7 @@
       <c r="B383" s="19"/>
       <c r="C383" s="19">
         <f t="shared" si="7"/>
-        <v>9090</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -9703,7 +9699,7 @@
       <c r="B384" s="19"/>
       <c r="C384" s="19">
         <f t="shared" si="7"/>
-        <v>9310.0000000000018</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -9711,7 +9707,7 @@
       <c r="B385" s="19"/>
       <c r="C385" s="19">
         <f t="shared" si="7"/>
-        <v>9530</v>
+        <v>8660</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -9719,7 +9715,7 @@
       <c r="B386" s="19"/>
       <c r="C386" s="19">
         <f t="shared" si="7"/>
-        <v>9760</v>
+        <v>8869.9999999999982</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -9727,7 +9723,7 @@
       <c r="B387" s="19"/>
       <c r="C387" s="19">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -9735,7 +9731,7 @@
       <c r="B388" s="19"/>
       <c r="C388" s="19">
         <f t="shared" si="7"/>
-        <v>10200</v>
+        <v>9310.0000000000018</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -9743,7 +9739,7 @@
       <c r="B389" s="19"/>
       <c r="C389" s="19">
         <f t="shared" si="7"/>
-        <v>10500</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -9751,7 +9747,7 @@
       <c r="B390" s="19"/>
       <c r="C390" s="19">
         <f t="shared" si="7"/>
-        <v>10700.000000000002</v>
+        <v>9760</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -9759,7 +9755,7 @@
       <c r="B391" s="19"/>
       <c r="C391" s="19">
         <f t="shared" si="7"/>
-        <v>11000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -9767,7 +9763,7 @@
       <c r="B392" s="19"/>
       <c r="C392" s="19">
         <f t="shared" si="7"/>
-        <v>11299.999999999998</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -9775,7 +9771,7 @@
       <c r="B393" s="19"/>
       <c r="C393" s="19">
         <f t="shared" si="7"/>
-        <v>11500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -9783,7 +9779,7 @@
       <c r="B394" s="19"/>
       <c r="C394" s="19">
         <f t="shared" si="7"/>
-        <v>11799.999999999998</v>
+        <v>10700.000000000002</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -9791,7 +9787,7 @@
       <c r="B395" s="19"/>
       <c r="C395" s="19">
         <f t="shared" si="7"/>
-        <v>12100</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -9799,7 +9795,7 @@
       <c r="B396" s="19"/>
       <c r="C396" s="19">
         <f t="shared" si="7"/>
-        <v>12400</v>
+        <v>11299.999999999998</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -9807,7 +9803,7 @@
       <c r="B397" s="19"/>
       <c r="C397" s="19">
         <f t="shared" si="7"/>
-        <v>12700</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -9815,7 +9811,7 @@
       <c r="B398" s="19"/>
       <c r="C398" s="19">
         <f t="shared" si="7"/>
-        <v>13000</v>
+        <v>11799.999999999998</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -9823,7 +9819,7 @@
       <c r="B399" s="19"/>
       <c r="C399" s="19">
         <f t="shared" si="7"/>
-        <v>13300</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -9831,7 +9827,7 @@
       <c r="B400" s="19"/>
       <c r="C400" s="19">
         <f t="shared" si="7"/>
-        <v>13700</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -9839,7 +9835,7 @@
       <c r="B401" s="19"/>
       <c r="C401" s="19">
         <f t="shared" si="7"/>
-        <v>14000</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -9847,7 +9843,7 @@
       <c r="B402" s="19"/>
       <c r="C402" s="19">
         <f t="shared" si="7"/>
-        <v>14300</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -9855,7 +9851,7 @@
       <c r="B403" s="19"/>
       <c r="C403" s="19">
         <f t="shared" si="7"/>
-        <v>14700</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -9863,7 +9859,7 @@
       <c r="B404" s="19"/>
       <c r="C404" s="19">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -9871,7 +9867,7 @@
       <c r="B405" s="19"/>
       <c r="C405" s="19">
         <f t="shared" si="7"/>
-        <v>15400</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -9879,7 +9875,7 @@
       <c r="B406" s="19"/>
       <c r="C406" s="19">
         <f t="shared" si="7"/>
-        <v>15800</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -9887,7 +9883,7 @@
       <c r="B407" s="19"/>
       <c r="C407" s="19">
         <f t="shared" si="7"/>
-        <v>16200.000000000002</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -9895,7 +9891,7 @@
       <c r="B408" s="19"/>
       <c r="C408" s="19">
         <f t="shared" si="7"/>
-        <v>16500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -9903,7 +9899,7 @@
       <c r="B409" s="19"/>
       <c r="C409" s="19">
         <f t="shared" si="7"/>
-        <v>16900</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -9911,7 +9907,7 @@
       <c r="B410" s="19"/>
       <c r="C410" s="19">
         <f t="shared" si="7"/>
-        <v>17400</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -9919,7 +9915,7 @@
       <c r="B411" s="19"/>
       <c r="C411" s="19">
         <f t="shared" si="7"/>
-        <v>17800</v>
+        <v>16200.000000000002</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -9927,7 +9923,7 @@
       <c r="B412" s="19"/>
       <c r="C412" s="19">
         <f t="shared" si="7"/>
-        <v>18200</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -9935,7 +9931,7 @@
       <c r="B413" s="19"/>
       <c r="C413" s="19">
         <f t="shared" si="7"/>
-        <v>18700.000000000004</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -9943,7 +9939,7 @@
       <c r="B414" s="19"/>
       <c r="C414" s="19">
         <f t="shared" si="7"/>
-        <v>19099.999999999996</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -9951,7 +9947,7 @@
       <c r="B415" s="19"/>
       <c r="C415" s="19">
         <f t="shared" si="7"/>
-        <v>19600</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -9959,7 +9955,7 @@
       <c r="B416" s="19"/>
       <c r="C416" s="19">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -9967,7 +9963,7 @@
       <c r="B417" s="19"/>
       <c r="C417" s="19">
         <f t="shared" si="7"/>
-        <v>20500</v>
+        <v>18700.000000000004</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -9975,7 +9971,7 @@
       <c r="B418" s="19"/>
       <c r="C418" s="19">
         <f t="shared" si="7"/>
-        <v>21000</v>
+        <v>19099.999999999996</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -9983,23 +9979,23 @@
       <c r="B419" s="19"/>
       <c r="C419" s="19">
         <f t="shared" si="7"/>
-        <v>21500</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="19"/>
       <c r="B420" s="19"/>
       <c r="C420" s="19">
-        <f t="shared" ref="C420:C483" si="8">C324*10</f>
-        <v>22100</v>
+        <f t="shared" si="7"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="19"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19">
-        <f t="shared" si="8"/>
-        <v>22599.999999999996</v>
+        <f t="shared" ref="C421:C484" si="8">C324*10</f>
+        <v>20500</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -10007,7 +10003,7 @@
       <c r="B422" s="19"/>
       <c r="C422" s="19">
         <f t="shared" si="8"/>
-        <v>23200</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -10015,7 +10011,7 @@
       <c r="B423" s="19"/>
       <c r="C423" s="19">
         <f t="shared" si="8"/>
-        <v>23700.000000000004</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -10023,7 +10019,7 @@
       <c r="B424" s="19"/>
       <c r="C424" s="19">
         <f t="shared" si="8"/>
-        <v>24300</v>
+        <v>22100</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -10031,7 +10027,7 @@
       <c r="B425" s="19"/>
       <c r="C425" s="19">
         <f t="shared" si="8"/>
-        <v>24900.000000000004</v>
+        <v>22599.999999999996</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -10039,7 +10035,7 @@
       <c r="B426" s="19"/>
       <c r="C426" s="19">
         <f t="shared" si="8"/>
-        <v>25500</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -10047,7 +10043,7 @@
       <c r="B427" s="19"/>
       <c r="C427" s="19">
         <f t="shared" si="8"/>
-        <v>26100</v>
+        <v>23700.000000000004</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -10055,7 +10051,7 @@
       <c r="B428" s="19"/>
       <c r="C428" s="19">
         <f t="shared" si="8"/>
-        <v>26700</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -10063,7 +10059,7 @@
       <c r="B429" s="19"/>
       <c r="C429" s="19">
         <f t="shared" si="8"/>
-        <v>27400</v>
+        <v>24900.000000000004</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -10071,7 +10067,7 @@
       <c r="B430" s="19"/>
       <c r="C430" s="19">
         <f t="shared" si="8"/>
-        <v>28000</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -10079,7 +10075,7 @@
       <c r="B431" s="19"/>
       <c r="C431" s="19">
         <f t="shared" si="8"/>
-        <v>28700</v>
+        <v>26100</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -10087,7 +10083,7 @@
       <c r="B432" s="19"/>
       <c r="C432" s="19">
         <f t="shared" si="8"/>
-        <v>29400</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -10095,7 +10091,7 @@
       <c r="B433" s="19"/>
       <c r="C433" s="19">
         <f t="shared" si="8"/>
-        <v>30100</v>
+        <v>27400</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -10103,7 +10099,7 @@
       <c r="B434" s="19"/>
       <c r="C434" s="19">
         <f t="shared" si="8"/>
-        <v>30900</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -10111,7 +10107,7 @@
       <c r="B435" s="19"/>
       <c r="C435" s="19">
         <f t="shared" si="8"/>
-        <v>31600</v>
+        <v>28700</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -10119,7 +10115,7 @@
       <c r="B436" s="19"/>
       <c r="C436" s="19">
         <f t="shared" si="8"/>
-        <v>32400.000000000004</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -10127,7 +10123,7 @@
       <c r="B437" s="19"/>
       <c r="C437" s="19">
         <f t="shared" si="8"/>
-        <v>33199.999999999993</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -10135,7 +10131,7 @@
       <c r="B438" s="19"/>
       <c r="C438" s="19">
         <f t="shared" si="8"/>
-        <v>34000</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -10143,7 +10139,7 @@
       <c r="B439" s="19"/>
       <c r="C439" s="19">
         <f t="shared" si="8"/>
-        <v>34800</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -10151,7 +10147,7 @@
       <c r="B440" s="19"/>
       <c r="C440" s="19">
         <f t="shared" si="8"/>
-        <v>35699.999999999993</v>
+        <v>32400.000000000004</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -10159,7 +10155,7 @@
       <c r="B441" s="19"/>
       <c r="C441" s="19">
         <f t="shared" si="8"/>
-        <v>36500</v>
+        <v>33199.999999999993</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -10167,7 +10163,7 @@
       <c r="B442" s="19"/>
       <c r="C442" s="19">
         <f t="shared" si="8"/>
-        <v>37400.000000000007</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -10175,7 +10171,7 @@
       <c r="B443" s="19"/>
       <c r="C443" s="19">
         <f t="shared" si="8"/>
-        <v>38300</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -10183,7 +10179,7 @@
       <c r="B444" s="19"/>
       <c r="C444" s="19">
         <f t="shared" si="8"/>
-        <v>39200</v>
+        <v>35699.999999999993</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -10191,7 +10187,7 @@
       <c r="B445" s="19"/>
       <c r="C445" s="19">
         <f t="shared" si="8"/>
-        <v>40199.999999999993</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -10199,7 +10195,7 @@
       <c r="B446" s="19"/>
       <c r="C446" s="19">
         <f t="shared" si="8"/>
-        <v>41200</v>
+        <v>37400.000000000007</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -10207,7 +10203,7 @@
       <c r="B447" s="19"/>
       <c r="C447" s="19">
         <f t="shared" si="8"/>
-        <v>42199.999999999993</v>
+        <v>38300</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -10215,7 +10211,7 @@
       <c r="B448" s="19"/>
       <c r="C448" s="19">
         <f t="shared" si="8"/>
-        <v>43200</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -10223,7 +10219,7 @@
       <c r="B449" s="19"/>
       <c r="C449" s="19">
         <f t="shared" si="8"/>
-        <v>44200</v>
+        <v>40199.999999999993</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -10231,7 +10227,7 @@
       <c r="B450" s="19"/>
       <c r="C450" s="19">
         <f t="shared" si="8"/>
-        <v>45300.000000000007</v>
+        <v>41200</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -10239,7 +10235,7 @@
       <c r="B451" s="19"/>
       <c r="C451" s="19">
         <f t="shared" si="8"/>
-        <v>46400</v>
+        <v>42199.999999999993</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -10247,7 +10243,7 @@
       <c r="B452" s="19"/>
       <c r="C452" s="19">
         <f t="shared" si="8"/>
-        <v>47500</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -10255,7 +10251,7 @@
       <c r="B453" s="19"/>
       <c r="C453" s="19">
         <f t="shared" si="8"/>
-        <v>48700</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -10263,7 +10259,7 @@
       <c r="B454" s="19"/>
       <c r="C454" s="19">
         <f t="shared" si="8"/>
-        <v>49900.000000000007</v>
+        <v>45300.000000000007</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -10271,7 +10267,7 @@
       <c r="B455" s="19"/>
       <c r="C455" s="19">
         <f t="shared" si="8"/>
-        <v>51100</v>
+        <v>46400</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -10279,7 +10275,7 @@
       <c r="B456" s="19"/>
       <c r="C456" s="19">
         <f t="shared" si="8"/>
-        <v>52300</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -10287,7 +10283,7 @@
       <c r="B457" s="19"/>
       <c r="C457" s="19">
         <f t="shared" si="8"/>
-        <v>53600</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -10295,7 +10291,7 @@
       <c r="B458" s="19"/>
       <c r="C458" s="19">
         <f t="shared" si="8"/>
-        <v>54900</v>
+        <v>48700</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -10303,7 +10299,7 @@
       <c r="B459" s="19"/>
       <c r="C459" s="19">
         <f t="shared" si="8"/>
-        <v>56200</v>
+        <v>49900.000000000007</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -10311,7 +10307,7 @@
       <c r="B460" s="19"/>
       <c r="C460" s="19">
         <f t="shared" si="8"/>
-        <v>57600</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -10319,7 +10315,7 @@
       <c r="B461" s="19"/>
       <c r="C461" s="19">
         <f t="shared" si="8"/>
-        <v>59000</v>
+        <v>52300</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -10327,7 +10323,7 @@
       <c r="B462" s="19"/>
       <c r="C462" s="19">
         <f t="shared" si="8"/>
-        <v>60400</v>
+        <v>53600</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -10335,7 +10331,7 @@
       <c r="B463" s="19"/>
       <c r="C463" s="19">
         <f t="shared" si="8"/>
-        <v>61900</v>
+        <v>54900</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -10343,7 +10339,7 @@
       <c r="B464" s="19"/>
       <c r="C464" s="19">
         <f t="shared" si="8"/>
-        <v>63400</v>
+        <v>56200</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -10351,7 +10347,7 @@
       <c r="B465" s="19"/>
       <c r="C465" s="19">
         <f t="shared" si="8"/>
-        <v>64900</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -10359,7 +10355,7 @@
       <c r="B466" s="19"/>
       <c r="C466" s="19">
         <f t="shared" si="8"/>
-        <v>66500</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -10367,7 +10363,7 @@
       <c r="B467" s="19"/>
       <c r="C467" s="19">
         <f t="shared" si="8"/>
-        <v>68100</v>
+        <v>60400</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -10375,7 +10371,7 @@
       <c r="B468" s="19"/>
       <c r="C468" s="19">
         <f t="shared" si="8"/>
-        <v>69800.000000000015</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -10383,7 +10379,7 @@
       <c r="B469" s="19"/>
       <c r="C469" s="19">
         <f t="shared" si="8"/>
-        <v>71500</v>
+        <v>63400</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -10391,7 +10387,7 @@
       <c r="B470" s="19"/>
       <c r="C470" s="19">
         <f t="shared" si="8"/>
-        <v>73200</v>
+        <v>64900</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -10399,7 +10395,7 @@
       <c r="B471" s="19"/>
       <c r="C471" s="19">
         <f t="shared" si="8"/>
-        <v>75000</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -10407,7 +10403,7 @@
       <c r="B472" s="19"/>
       <c r="C472" s="19">
         <f t="shared" si="8"/>
-        <v>76800</v>
+        <v>68100</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -10415,7 +10411,7 @@
       <c r="B473" s="19"/>
       <c r="C473" s="19">
         <f t="shared" si="8"/>
-        <v>78700</v>
+        <v>69800.000000000015</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -10423,7 +10419,7 @@
       <c r="B474" s="19"/>
       <c r="C474" s="19">
         <f t="shared" si="8"/>
-        <v>80600.000000000015</v>
+        <v>71500</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -10431,7 +10427,7 @@
       <c r="B475" s="19"/>
       <c r="C475" s="19">
         <f t="shared" si="8"/>
-        <v>82500</v>
+        <v>73200</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -10439,7 +10435,7 @@
       <c r="B476" s="19"/>
       <c r="C476" s="19">
         <f t="shared" si="8"/>
-        <v>84500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -10447,7 +10443,7 @@
       <c r="B477" s="19"/>
       <c r="C477" s="19">
         <f t="shared" si="8"/>
-        <v>86600</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -10455,7 +10451,7 @@
       <c r="B478" s="19"/>
       <c r="C478" s="19">
         <f t="shared" si="8"/>
-        <v>88699.999999999985</v>
+        <v>78700</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -10463,7 +10459,7 @@
       <c r="B479" s="19"/>
       <c r="C479" s="19">
         <f t="shared" si="8"/>
-        <v>90900</v>
+        <v>80600.000000000015</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -10471,7 +10467,7 @@
       <c r="B480" s="19"/>
       <c r="C480" s="19">
         <f t="shared" si="8"/>
-        <v>93100.000000000015</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -10479,7 +10475,7 @@
       <c r="B481" s="19"/>
       <c r="C481" s="19">
         <f t="shared" si="8"/>
-        <v>95300</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -10487,7 +10483,7 @@
       <c r="B482" s="19"/>
       <c r="C482" s="19">
         <f t="shared" si="8"/>
-        <v>97600</v>
+        <v>86600</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -10495,23 +10491,23 @@
       <c r="B483" s="19"/>
       <c r="C483" s="19">
         <f t="shared" si="8"/>
-        <v>100000</v>
+        <v>88699.999999999985</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="19"/>
       <c r="B484" s="19"/>
       <c r="C484" s="19">
-        <f t="shared" ref="C484:C547" si="9">C388*10</f>
-        <v>102000</v>
+        <f t="shared" si="8"/>
+        <v>90900</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="19"/>
       <c r="B485" s="19"/>
       <c r="C485" s="19">
-        <f t="shared" si="9"/>
-        <v>105000</v>
+        <f t="shared" ref="C485:C548" si="9">C388*10</f>
+        <v>93100.000000000015</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -10519,7 +10515,7 @@
       <c r="B486" s="19"/>
       <c r="C486" s="19">
         <f t="shared" si="9"/>
-        <v>107000.00000000001</v>
+        <v>95300</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -10527,7 +10523,7 @@
       <c r="B487" s="19"/>
       <c r="C487" s="19">
         <f t="shared" si="9"/>
-        <v>110000</v>
+        <v>97600</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -10535,7 +10531,7 @@
       <c r="B488" s="19"/>
       <c r="C488" s="19">
         <f t="shared" si="9"/>
-        <v>112999.99999999999</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -10543,7 +10539,7 @@
       <c r="B489" s="19"/>
       <c r="C489" s="19">
         <f t="shared" si="9"/>
-        <v>115000</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -10551,7 +10547,7 @@
       <c r="B490" s="19"/>
       <c r="C490" s="19">
         <f t="shared" si="9"/>
-        <v>117999.99999999999</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -10559,7 +10555,7 @@
       <c r="B491" s="19"/>
       <c r="C491" s="19">
         <f t="shared" si="9"/>
-        <v>121000</v>
+        <v>107000.00000000001</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -10567,7 +10563,7 @@
       <c r="B492" s="19"/>
       <c r="C492" s="19">
         <f t="shared" si="9"/>
-        <v>124000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -10575,7 +10571,7 @@
       <c r="B493" s="19"/>
       <c r="C493" s="19">
         <f t="shared" si="9"/>
-        <v>127000</v>
+        <v>112999.99999999999</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -10583,7 +10579,7 @@
       <c r="B494" s="19"/>
       <c r="C494" s="19">
         <f t="shared" si="9"/>
-        <v>130000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -10591,7 +10587,7 @@
       <c r="B495" s="19"/>
       <c r="C495" s="19">
         <f t="shared" si="9"/>
-        <v>133000</v>
+        <v>117999.99999999999</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -10599,7 +10595,7 @@
       <c r="B496" s="19"/>
       <c r="C496" s="19">
         <f t="shared" si="9"/>
-        <v>137000</v>
+        <v>121000</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -10607,7 +10603,7 @@
       <c r="B497" s="19"/>
       <c r="C497" s="19">
         <f t="shared" si="9"/>
-        <v>140000</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -10615,7 +10611,7 @@
       <c r="B498" s="19"/>
       <c r="C498" s="19">
         <f t="shared" si="9"/>
-        <v>143000</v>
+        <v>127000</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -10623,7 +10619,7 @@
       <c r="B499" s="19"/>
       <c r="C499" s="19">
         <f t="shared" si="9"/>
-        <v>147000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -10631,7 +10627,7 @@
       <c r="B500" s="19"/>
       <c r="C500" s="19">
         <f t="shared" si="9"/>
-        <v>150000</v>
+        <v>133000</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -10639,7 +10635,7 @@
       <c r="B501" s="19"/>
       <c r="C501" s="19">
         <f t="shared" si="9"/>
-        <v>154000</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -10647,7 +10643,7 @@
       <c r="B502" s="19"/>
       <c r="C502" s="19">
         <f t="shared" si="9"/>
-        <v>158000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -10655,7 +10651,7 @@
       <c r="B503" s="19"/>
       <c r="C503" s="19">
         <f t="shared" si="9"/>
-        <v>162000.00000000003</v>
+        <v>143000</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -10663,7 +10659,7 @@
       <c r="B504" s="19"/>
       <c r="C504" s="19">
         <f t="shared" si="9"/>
-        <v>165000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -10671,7 +10667,7 @@
       <c r="B505" s="19"/>
       <c r="C505" s="19">
         <f t="shared" si="9"/>
-        <v>169000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -10679,7 +10675,7 @@
       <c r="B506" s="19"/>
       <c r="C506" s="19">
         <f t="shared" si="9"/>
-        <v>174000</v>
+        <v>154000</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -10687,7 +10683,7 @@
       <c r="B507" s="19"/>
       <c r="C507" s="19">
         <f t="shared" si="9"/>
-        <v>178000</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -10695,7 +10691,7 @@
       <c r="B508" s="19"/>
       <c r="C508" s="19">
         <f t="shared" si="9"/>
-        <v>182000</v>
+        <v>162000.00000000003</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -10703,7 +10699,7 @@
       <c r="B509" s="19"/>
       <c r="C509" s="19">
         <f t="shared" si="9"/>
-        <v>187000.00000000003</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -10711,7 +10707,7 @@
       <c r="B510" s="19"/>
       <c r="C510" s="19">
         <f t="shared" si="9"/>
-        <v>190999.99999999997</v>
+        <v>169000</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -10719,7 +10715,7 @@
       <c r="B511" s="19"/>
       <c r="C511" s="19">
         <f t="shared" si="9"/>
-        <v>196000</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -10727,7 +10723,7 @@
       <c r="B512" s="19"/>
       <c r="C512" s="19">
         <f t="shared" si="9"/>
-        <v>200000</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -10735,7 +10731,7 @@
       <c r="B513" s="19"/>
       <c r="C513" s="19">
         <f t="shared" si="9"/>
-        <v>205000</v>
+        <v>182000</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -10743,7 +10739,7 @@
       <c r="B514" s="19"/>
       <c r="C514" s="19">
         <f t="shared" si="9"/>
-        <v>210000</v>
+        <v>187000.00000000003</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -10751,7 +10747,7 @@
       <c r="B515" s="19"/>
       <c r="C515" s="19">
         <f t="shared" si="9"/>
-        <v>215000</v>
+        <v>190999.99999999997</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -10759,7 +10755,7 @@
       <c r="B516" s="19"/>
       <c r="C516" s="19">
         <f t="shared" si="9"/>
-        <v>221000</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -10767,7 +10763,7 @@
       <c r="B517" s="19"/>
       <c r="C517" s="19">
         <f t="shared" si="9"/>
-        <v>225999.99999999997</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -10775,7 +10771,7 @@
       <c r="B518" s="19"/>
       <c r="C518" s="19">
         <f t="shared" si="9"/>
-        <v>232000</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -10783,7 +10779,7 @@
       <c r="B519" s="19"/>
       <c r="C519" s="19">
         <f t="shared" si="9"/>
-        <v>237000.00000000003</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -10791,7 +10787,7 @@
       <c r="B520" s="19"/>
       <c r="C520" s="19">
         <f t="shared" si="9"/>
-        <v>243000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -10799,7 +10795,7 @@
       <c r="B521" s="19"/>
       <c r="C521" s="19">
         <f t="shared" si="9"/>
-        <v>249000.00000000003</v>
+        <v>221000</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -10807,7 +10803,7 @@
       <c r="B522" s="19"/>
       <c r="C522" s="19">
         <f t="shared" si="9"/>
-        <v>255000</v>
+        <v>225999.99999999997</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -10815,7 +10811,7 @@
       <c r="B523" s="19"/>
       <c r="C523" s="19">
         <f t="shared" si="9"/>
-        <v>261000</v>
+        <v>232000</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -10823,7 +10819,7 @@
       <c r="B524" s="19"/>
       <c r="C524" s="19">
         <f t="shared" si="9"/>
-        <v>267000</v>
+        <v>237000.00000000003</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -10831,7 +10827,7 @@
       <c r="B525" s="19"/>
       <c r="C525" s="19">
         <f t="shared" si="9"/>
-        <v>274000</v>
+        <v>243000</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -10839,7 +10835,7 @@
       <c r="B526" s="19"/>
       <c r="C526" s="19">
         <f t="shared" si="9"/>
-        <v>280000</v>
+        <v>249000.00000000003</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -10847,7 +10843,7 @@
       <c r="B527" s="19"/>
       <c r="C527" s="19">
         <f t="shared" si="9"/>
-        <v>287000</v>
+        <v>255000</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -10855,7 +10851,7 @@
       <c r="B528" s="19"/>
       <c r="C528" s="19">
         <f t="shared" si="9"/>
-        <v>294000</v>
+        <v>261000</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -10863,7 +10859,7 @@
       <c r="B529" s="19"/>
       <c r="C529" s="19">
         <f t="shared" si="9"/>
-        <v>301000</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -10871,7 +10867,7 @@
       <c r="B530" s="19"/>
       <c r="C530" s="19">
         <f t="shared" si="9"/>
-        <v>309000</v>
+        <v>274000</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -10879,7 +10875,7 @@
       <c r="B531" s="19"/>
       <c r="C531" s="19">
         <f t="shared" si="9"/>
-        <v>316000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -10887,7 +10883,7 @@
       <c r="B532" s="19"/>
       <c r="C532" s="19">
         <f t="shared" si="9"/>
-        <v>324000.00000000006</v>
+        <v>287000</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -10895,7 +10891,7 @@
       <c r="B533" s="19"/>
       <c r="C533" s="19">
         <f t="shared" si="9"/>
-        <v>331999.99999999994</v>
+        <v>294000</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -10903,7 +10899,7 @@
       <c r="B534" s="19"/>
       <c r="C534" s="19">
         <f t="shared" si="9"/>
-        <v>340000</v>
+        <v>301000</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -10911,7 +10907,7 @@
       <c r="B535" s="19"/>
       <c r="C535" s="19">
         <f t="shared" si="9"/>
-        <v>348000</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -10919,7 +10915,7 @@
       <c r="B536" s="19"/>
       <c r="C536" s="19">
         <f t="shared" si="9"/>
-        <v>356999.99999999994</v>
+        <v>316000</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -10927,7 +10923,7 @@
       <c r="B537" s="19"/>
       <c r="C537" s="19">
         <f t="shared" si="9"/>
-        <v>365000</v>
+        <v>324000.00000000006</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -10935,7 +10931,7 @@
       <c r="B538" s="19"/>
       <c r="C538" s="19">
         <f t="shared" si="9"/>
-        <v>374000.00000000006</v>
+        <v>331999.99999999994</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -10943,7 +10939,7 @@
       <c r="B539" s="19"/>
       <c r="C539" s="19">
         <f t="shared" si="9"/>
-        <v>383000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -10951,7 +10947,7 @@
       <c r="B540" s="19"/>
       <c r="C540" s="19">
         <f t="shared" si="9"/>
-        <v>392000</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -10959,7 +10955,7 @@
       <c r="B541" s="19"/>
       <c r="C541" s="19">
         <f t="shared" si="9"/>
-        <v>401999.99999999994</v>
+        <v>356999.99999999994</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -10967,7 +10963,7 @@
       <c r="B542" s="19"/>
       <c r="C542" s="19">
         <f t="shared" si="9"/>
-        <v>412000</v>
+        <v>365000</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -10975,7 +10971,7 @@
       <c r="B543" s="19"/>
       <c r="C543" s="19">
         <f t="shared" si="9"/>
-        <v>421999.99999999994</v>
+        <v>374000.00000000006</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -10983,7 +10979,7 @@
       <c r="B544" s="19"/>
       <c r="C544" s="19">
         <f t="shared" si="9"/>
-        <v>432000</v>
+        <v>383000</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -10991,7 +10987,7 @@
       <c r="B545" s="19"/>
       <c r="C545" s="19">
         <f t="shared" si="9"/>
-        <v>442000</v>
+        <v>392000</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -10999,7 +10995,7 @@
       <c r="B546" s="19"/>
       <c r="C546" s="19">
         <f t="shared" si="9"/>
-        <v>453000.00000000006</v>
+        <v>401999.99999999994</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -11007,23 +11003,23 @@
       <c r="B547" s="19"/>
       <c r="C547" s="19">
         <f t="shared" si="9"/>
-        <v>464000</v>
+        <v>412000</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="19"/>
       <c r="B548" s="19"/>
       <c r="C548" s="19">
-        <f t="shared" ref="C548:C611" si="10">C452*10</f>
-        <v>475000</v>
+        <f t="shared" si="9"/>
+        <v>421999.99999999994</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="19"/>
       <c r="B549" s="19"/>
       <c r="C549" s="19">
-        <f t="shared" si="10"/>
-        <v>487000</v>
+        <f t="shared" ref="C549:C586" si="10">C452*10</f>
+        <v>432000</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -11031,7 +11027,7 @@
       <c r="B550" s="19"/>
       <c r="C550" s="19">
         <f t="shared" si="10"/>
-        <v>499000.00000000006</v>
+        <v>442000</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -11039,7 +11035,7 @@
       <c r="B551" s="19"/>
       <c r="C551" s="19">
         <f t="shared" si="10"/>
-        <v>511000</v>
+        <v>453000.00000000006</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -11047,7 +11043,7 @@
       <c r="B552" s="19"/>
       <c r="C552" s="19">
         <f t="shared" si="10"/>
-        <v>523000</v>
+        <v>464000</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -11055,7 +11051,7 @@
       <c r="B553" s="19"/>
       <c r="C553" s="19">
         <f t="shared" si="10"/>
-        <v>536000</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -11063,7 +11059,7 @@
       <c r="B554" s="19"/>
       <c r="C554" s="19">
         <f t="shared" si="10"/>
-        <v>549000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -11071,7 +11067,7 @@
       <c r="B555" s="19"/>
       <c r="C555" s="19">
         <f t="shared" si="10"/>
-        <v>562000</v>
+        <v>487000</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -11079,7 +11075,7 @@
       <c r="B556" s="19"/>
       <c r="C556" s="19">
         <f t="shared" si="10"/>
-        <v>576000</v>
+        <v>499000.00000000006</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -11087,7 +11083,7 @@
       <c r="B557" s="19"/>
       <c r="C557" s="19">
         <f t="shared" si="10"/>
-        <v>590000</v>
+        <v>511000</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -11095,7 +11091,7 @@
       <c r="B558" s="19"/>
       <c r="C558" s="19">
         <f t="shared" si="10"/>
-        <v>604000</v>
+        <v>523000</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -11103,7 +11099,7 @@
       <c r="B559" s="19"/>
       <c r="C559" s="19">
         <f t="shared" si="10"/>
-        <v>619000</v>
+        <v>536000</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -11111,7 +11107,7 @@
       <c r="B560" s="19"/>
       <c r="C560" s="19">
         <f t="shared" si="10"/>
-        <v>634000</v>
+        <v>549000</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -11119,7 +11115,7 @@
       <c r="B561" s="19"/>
       <c r="C561" s="19">
         <f t="shared" si="10"/>
-        <v>649000</v>
+        <v>562000</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
@@ -11127,7 +11123,7 @@
       <c r="B562" s="19"/>
       <c r="C562" s="19">
         <f t="shared" si="10"/>
-        <v>665000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -11135,7 +11131,7 @@
       <c r="B563" s="19"/>
       <c r="C563" s="19">
         <f t="shared" si="10"/>
-        <v>681000</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -11143,7 +11139,7 @@
       <c r="B564" s="19"/>
       <c r="C564" s="19">
         <f t="shared" si="10"/>
-        <v>698000.00000000012</v>
+        <v>604000</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -11151,7 +11147,7 @@
       <c r="B565" s="19"/>
       <c r="C565" s="19">
         <f t="shared" si="10"/>
-        <v>715000</v>
+        <v>619000</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -11159,7 +11155,7 @@
       <c r="B566" s="19"/>
       <c r="C566" s="19">
         <f t="shared" si="10"/>
-        <v>732000</v>
+        <v>634000</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -11167,7 +11163,7 @@
       <c r="B567" s="19"/>
       <c r="C567" s="19">
         <f t="shared" si="10"/>
-        <v>750000</v>
+        <v>649000</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -11175,7 +11171,7 @@
       <c r="B568" s="19"/>
       <c r="C568" s="19">
         <f t="shared" si="10"/>
-        <v>768000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -11183,7 +11179,7 @@
       <c r="B569" s="19"/>
       <c r="C569" s="19">
         <f t="shared" si="10"/>
-        <v>787000</v>
+        <v>681000</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -11191,7 +11187,7 @@
       <c r="B570" s="19"/>
       <c r="C570" s="19">
         <f t="shared" si="10"/>
-        <v>806000.00000000012</v>
+        <v>698000.00000000012</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -11199,7 +11195,7 @@
       <c r="B571" s="19"/>
       <c r="C571" s="19">
         <f t="shared" si="10"/>
-        <v>825000</v>
+        <v>715000</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -11207,7 +11203,7 @@
       <c r="B572" s="19"/>
       <c r="C572" s="19">
         <f t="shared" si="10"/>
-        <v>845000</v>
+        <v>732000</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -11215,7 +11211,7 @@
       <c r="B573" s="19"/>
       <c r="C573" s="19">
         <f t="shared" si="10"/>
-        <v>866000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -11223,7 +11219,7 @@
       <c r="B574" s="19"/>
       <c r="C574" s="19">
         <f t="shared" si="10"/>
-        <v>886999.99999999988</v>
+        <v>768000</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -11231,7 +11227,7 @@
       <c r="B575" s="19"/>
       <c r="C575" s="19">
         <f t="shared" si="10"/>
-        <v>909000</v>
+        <v>787000</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -11239,7 +11235,7 @@
       <c r="B576" s="19"/>
       <c r="C576" s="19">
         <f t="shared" si="10"/>
-        <v>931000.00000000012</v>
+        <v>806000.00000000012</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -11247,7 +11243,7 @@
       <c r="B577" s="19"/>
       <c r="C577" s="19">
         <f t="shared" si="10"/>
-        <v>953000</v>
+        <v>825000</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -11255,13 +11251,61 @@
       <c r="B578" s="19"/>
       <c r="C578" s="19">
         <f t="shared" si="10"/>
-        <v>976000</v>
+        <v>845000</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="19"/>
       <c r="B579" s="19"/>
       <c r="C579" s="19">
+        <f t="shared" si="10"/>
+        <v>866000</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" s="19"/>
+      <c r="B580" s="19"/>
+      <c r="C580" s="19">
+        <f t="shared" si="10"/>
+        <v>886999.99999999988</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" s="19"/>
+      <c r="B581" s="19"/>
+      <c r="C581" s="19">
+        <f t="shared" si="10"/>
+        <v>909000</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" s="19"/>
+      <c r="B582" s="19"/>
+      <c r="C582" s="19">
+        <f t="shared" si="10"/>
+        <v>931000.00000000012</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" s="19"/>
+      <c r="B583" s="19"/>
+      <c r="C583" s="19">
+        <f t="shared" si="10"/>
+        <v>953000</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" s="19"/>
+      <c r="B584" s="19"/>
+      <c r="C584" s="19">
+        <f t="shared" si="10"/>
+        <v>976000</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" s="19"/>
+      <c r="B585" s="19"/>
+      <c r="C585" s="19">
         <f t="shared" si="10"/>
         <v>1000000</v>
       </c>
